--- a/INVIGILATIONS 2022-23/TEACHERS.xlsx
+++ b/INVIGILATIONS 2022-23/TEACHERS.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\INVIGILATIONS 2022-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F994C5-D018-4408-9020-BC185792A183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635811E6-D4C3-4A73-9DE7-CC3DD83221EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F9CFB8FC-6424-441D-B040-026FBADF2AE8}"/>
   </bookViews>
   <sheets>
     <sheet name="TEACHERS" sheetId="1" r:id="rId1"/>
     <sheet name="INTER" sheetId="2" r:id="rId2"/>
-    <sheet name="AQUITTANCE" sheetId="3" r:id="rId3"/>
+    <sheet name="INTER SUPP" sheetId="4" r:id="rId3"/>
+    <sheet name="AQUITTANCE" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="255">
   <si>
     <t>S.NO</t>
   </si>
@@ -789,6 +790,19 @@
   </si>
   <si>
     <t>ANY REMARKS</t>
+  </si>
+  <si>
+    <t>LIST OF INVIGILATORS FOR INTERMEDIATE SUPPLEMENTARY EXAMINATIONS MAY-2023</t>
+  </si>
+  <si>
+    <t>SIGNATURE</t>
+  </si>
+  <si>
+    <t>DATES: 27-05-2023 AND 29-05-2023 (2 DAYS)
+  TIME: 08:30 AM TO 12:00 PM</t>
+  </si>
+  <si>
+    <t>EXAMINATION CENTER: GOVT.JR COLLEGE (ST)</t>
   </si>
 </sst>
 </file>
@@ -798,7 +812,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,6 +881,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -876,7 +906,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -899,11 +929,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,18 +987,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -976,15 +1003,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E684A5-5EB8-43F3-B14B-B4BA3234EFE6}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3770,13 +3830,13 @@
       <c r="E80" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
     </row>
     <row r="84" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H84" s="4">
@@ -3810,8 +3870,8 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3825,21 +3885,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -3851,18 +3911,18 @@
       <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13" s="12" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
@@ -4202,20 +4262,20 @@
       <c r="M11" s="13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4231,13 +4291,174 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F1372D-DA04-4376-9FD3-239D1837B1D9}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="1:4" s="35" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>1</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:4" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>2</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <v>3</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:4" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>4</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:4" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>5</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:4" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>6</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:4" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
+        <v>7</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="1:4" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
+        <v>8</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0868C9E1-FE48-4EE0-86AC-939300977862}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -4249,32 +4470,32 @@
     <col min="4" max="4" width="27" style="10" customWidth="1"/>
     <col min="5" max="5" width="22" style="10" customWidth="1"/>
     <col min="6" max="6" width="20" style="10" customWidth="1"/>
-    <col min="7" max="17" width="9.140625" style="28"/>
+    <col min="7" max="17" width="9.140625" style="24"/>
     <col min="18" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:17" s="22" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-    </row>
-    <row r="2" spans="1:17" s="26" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+    </row>
+    <row r="2" spans="1:17" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>246</v>
       </c>
@@ -4283,19 +4504,19 @@
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-    </row>
-    <row r="3" spans="1:17" s="26" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>247</v>
       </c>
@@ -4304,186 +4525,186 @@
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-    </row>
-    <row r="4" spans="1:17" s="27" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+    </row>
+    <row r="4" spans="1:17" s="23" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
